--- a/biology/Médecine/District_hospitalier_de_Satakunta/District_hospitalier_de_Satakunta.xlsx
+++ b/biology/Médecine/District_hospitalier_de_Satakunta/District_hospitalier_de_Satakunta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le District hospitalier de Satakunta (finnois : Satakunnan sairaanhoitopiiri) est un district hospitalier de la région de Satakunta[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le District hospitalier de Satakunta (finnois : Satakunnan sairaanhoitopiiri) est un district hospitalier de la région de Satakunta.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le district hospitalier de Satakunta offre ses services de santé à environ 226 000 habitants. Le district emploie près de 3800 professionnels de santé[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le district hospitalier de Satakunta offre ses services de santé à environ 226 000 habitants. Le district emploie près de 3800 professionnels de santé. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Municipalités membres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La liste des municipalités membres de Satakunta est[1]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste des municipalités membres de Satakunta est:
 Eura
 Eurajoki
 Harjavalta
@@ -590,9 +606,11 @@
           <t>Hôpitaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les établissements hospitaliers sont[1]:
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les établissements hospitaliers sont:
 Hôpital central de Satakunta (Pori)
 Hôpital de Rauma (Rauma)
 Hôpital de Harjavalta (Harjavalta)
